--- a/CRONOGRAMA DE ENTREGA - IOARR. PDF.xlsx
+++ b/CRONOGRAMA DE ENTREGA - IOARR. PDF.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JR2020\IOARR 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEL\Documents\RepositorioORFEI\Gestion-ORFEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6320643-7B3E-451D-BB77-93375910717A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD45DA2-C6B2-42C5-A7FC-786EB1BFC383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$4:$CF$173</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -466,12 +469,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -552,6 +549,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -746,52 +749,52 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -800,47 +803,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -848,34 +861,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,9 +1166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C172" sqref="A172:XFD172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1181,377 +1184,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="62"/>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="62"/>
-      <c r="BS1" s="62"/>
-      <c r="BT1" s="62"/>
-      <c r="BU1" s="62"/>
-      <c r="BV1" s="62"/>
-      <c r="BW1" s="62"/>
-      <c r="BX1" s="62"/>
-      <c r="BY1" s="62"/>
-      <c r="BZ1" s="62"/>
-      <c r="CA1" s="62"/>
-      <c r="CB1" s="62"/>
-      <c r="CC1" s="62"/>
-      <c r="CD1" s="62"/>
-      <c r="CE1" s="62"/>
-      <c r="CF1" s="62"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
+      <c r="BX1" s="58"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="58"/>
+      <c r="CA1" s="58"/>
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
     </row>
     <row r="2" spans="1:84" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="62"/>
-      <c r="BH2" s="62"/>
-      <c r="BI2" s="62"/>
-      <c r="BJ2" s="62"/>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="62"/>
-      <c r="BM2" s="62"/>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
-      <c r="BR2" s="62"/>
-      <c r="BS2" s="62"/>
-      <c r="BT2" s="62"/>
-      <c r="BU2" s="62"/>
-      <c r="BV2" s="62"/>
-      <c r="BW2" s="62"/>
-      <c r="BX2" s="62"/>
-      <c r="BY2" s="62"/>
-      <c r="BZ2" s="62"/>
-      <c r="CA2" s="62"/>
-      <c r="CB2" s="62"/>
-      <c r="CC2" s="62"/>
-      <c r="CD2" s="62"/>
-      <c r="CE2" s="62"/>
-      <c r="CF2" s="62"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58"/>
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58"/>
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="58"/>
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58"/>
+      <c r="BX2" s="58"/>
+      <c r="BY2" s="58"/>
+      <c r="BZ2" s="58"/>
+      <c r="CA2" s="58"/>
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="58"/>
+      <c r="CD2" s="58"/>
+      <c r="CE2" s="58"/>
+      <c r="CF2" s="58"/>
     </row>
     <row r="3" spans="1:84" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="63"/>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="63"/>
-      <c r="BS3" s="63"/>
-      <c r="BT3" s="63"/>
-      <c r="BU3" s="63"/>
-      <c r="BV3" s="63"/>
-      <c r="BW3" s="63"/>
-      <c r="BX3" s="63"/>
-      <c r="BY3" s="63"/>
-      <c r="BZ3" s="63"/>
-      <c r="CA3" s="63"/>
-      <c r="CB3" s="63"/>
-      <c r="CC3" s="63"/>
-      <c r="CD3" s="63"/>
-      <c r="CE3" s="63"/>
-      <c r="CF3" s="63"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="59"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="59"/>
+      <c r="BN3" s="59"/>
+      <c r="BO3" s="59"/>
+      <c r="BP3" s="59"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="59"/>
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="59"/>
+      <c r="BU3" s="59"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="59"/>
+      <c r="BX3" s="59"/>
+      <c r="BY3" s="59"/>
+      <c r="BZ3" s="59"/>
+      <c r="CA3" s="59"/>
+      <c r="CB3" s="59"/>
+      <c r="CC3" s="59"/>
+      <c r="CD3" s="59"/>
+      <c r="CE3" s="59"/>
+      <c r="CF3" s="59"/>
     </row>
     <row r="4" spans="1:84" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="61"/>
-      <c r="BL4" s="61"/>
-      <c r="BM4" s="61"/>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="61"/>
-      <c r="BP4" s="61"/>
-      <c r="BQ4" s="61"/>
-      <c r="BR4" s="61"/>
-      <c r="BS4" s="61"/>
-      <c r="BT4" s="61"/>
-      <c r="BU4" s="61"/>
-      <c r="BV4" s="61"/>
-      <c r="BW4" s="61" t="s">
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="57"/>
+      <c r="BE4" s="57"/>
+      <c r="BF4" s="57"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="57"/>
+      <c r="BR4" s="57"/>
+      <c r="BS4" s="57"/>
+      <c r="BT4" s="57"/>
+      <c r="BU4" s="57"/>
+      <c r="BV4" s="57"/>
+      <c r="BW4" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="BX4" s="61"/>
-      <c r="BY4" s="61"/>
-      <c r="BZ4" s="61"/>
-      <c r="CA4" s="61"/>
-      <c r="CB4" s="61"/>
-      <c r="CC4" s="61"/>
-      <c r="CD4" s="61"/>
-      <c r="CE4" s="61"/>
-      <c r="CF4" s="61"/>
+      <c r="BX4" s="57"/>
+      <c r="BY4" s="57"/>
+      <c r="BZ4" s="57"/>
+      <c r="CA4" s="57"/>
+      <c r="CB4" s="57"/>
+      <c r="CC4" s="57"/>
+      <c r="CD4" s="57"/>
+      <c r="CE4" s="57"/>
+      <c r="CF4" s="57"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="6">
         <v>25</v>
       </c>
@@ -1791,11 +1794,11 @@
       </c>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
@@ -2035,10 +2038,10 @@
       </c>
     </row>
     <row r="7" spans="1:84" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58">
+      <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2047,7 +2050,7 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="8"/>
@@ -2131,15 +2134,15 @@
       <c r="CF7" s="11"/>
     </row>
     <row r="8" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -2221,15 +2224,15 @@
       <c r="CF8" s="15"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="16"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -2311,15 +2314,15 @@
       <c r="CF9" s="15"/>
     </row>
     <row r="10" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="16"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -2401,15 +2404,15 @@
       <c r="CF10" s="15"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="57"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="16"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -2491,15 +2494,15 @@
       <c r="CF11" s="15"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="16"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -2581,15 +2584,15 @@
       <c r="CF12" s="15"/>
     </row>
     <row r="13" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="16"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -2671,8 +2674,8 @@
       <c r="CF13" s="15"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2763,8 +2766,8 @@
       <c r="CF14" s="15"/>
     </row>
     <row r="15" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
@@ -2855,8 +2858,8 @@
       <c r="CF15" s="15"/>
     </row>
     <row r="16" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2947,10 +2950,10 @@
       <c r="CF16" s="15"/>
     </row>
     <row r="17" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58">
+      <c r="A17" s="66">
         <v>2</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="60" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2959,7 +2962,7 @@
       <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="16"/>
@@ -3043,15 +3046,15 @@
       <c r="CF17" s="15"/>
     </row>
     <row r="18" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="57"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3133,15 +3136,15 @@
       <c r="CF18" s="15"/>
     </row>
     <row r="19" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="57"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="16"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -3223,15 +3226,15 @@
       <c r="CF19" s="15"/>
     </row>
     <row r="20" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="57"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="16"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -3313,15 +3316,15 @@
       <c r="CF20" s="15"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="16"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -3403,15 +3406,15 @@
       <c r="CF21" s="15"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="16"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -3493,15 +3496,15 @@
       <c r="CF22" s="15"/>
     </row>
     <row r="23" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="57"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -3583,8 +3586,8 @@
       <c r="CF23" s="15"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
@@ -3675,8 +3678,8 @@
       <c r="CF24" s="15"/>
     </row>
     <row r="25" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="3" t="s">
         <v>45</v>
       </c>
@@ -3767,8 +3770,8 @@
       <c r="CF25" s="15"/>
     </row>
     <row r="26" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
@@ -3859,10 +3862,10 @@
       <c r="CF26" s="15"/>
     </row>
     <row r="27" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58">
+      <c r="A27" s="66">
         <v>3</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="65" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3871,7 +3874,7 @@
       <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="16"/>
@@ -3955,15 +3958,15 @@
       <c r="CF27" s="15"/>
     </row>
     <row r="28" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="16"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -4045,15 +4048,15 @@
       <c r="CF28" s="15"/>
     </row>
     <row r="29" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="57"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="16"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -4135,15 +4138,15 @@
       <c r="CF29" s="15"/>
     </row>
     <row r="30" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="57"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="16"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -4225,15 +4228,15 @@
       <c r="CF30" s="15"/>
     </row>
     <row r="31" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="57"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="16"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -4315,15 +4318,15 @@
       <c r="CF31" s="15"/>
     </row>
     <row r="32" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="57"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="16"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -4405,15 +4408,15 @@
       <c r="CF32" s="15"/>
     </row>
     <row r="33" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="57"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -4495,8 +4498,8 @@
       <c r="CF33" s="15"/>
     </row>
     <row r="34" spans="1:84" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="3" t="s">
         <v>16</v>
       </c>
@@ -4587,8 +4590,8 @@
       <c r="CF34" s="15"/>
     </row>
     <row r="35" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="3" t="s">
         <v>45</v>
       </c>
@@ -4679,8 +4682,8 @@
       <c r="CF35" s="15"/>
     </row>
     <row r="36" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="3" t="s">
         <v>17</v>
       </c>
@@ -4771,10 +4774,10 @@
       <c r="CF36" s="15"/>
     </row>
     <row r="37" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="58">
+      <c r="A37" s="66">
         <v>4</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="60" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -4783,7 +4786,7 @@
       <c r="D37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="16"/>
@@ -4867,15 +4870,15 @@
       <c r="CF37" s="15"/>
     </row>
     <row r="38" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
-      <c r="B38" s="56"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="57"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="16"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -4957,15 +4960,15 @@
       <c r="CF38" s="15"/>
     </row>
     <row r="39" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="56"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="57"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="16"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -5047,15 +5050,15 @@
       <c r="CF39" s="15"/>
     </row>
     <row r="40" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="57"/>
+      <c r="E40" s="61"/>
       <c r="F40" s="16"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -5137,15 +5140,15 @@
       <c r="CF40" s="15"/>
     </row>
     <row r="41" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="57"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="16"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -5227,15 +5230,15 @@
       <c r="CF41" s="15"/>
     </row>
     <row r="42" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58"/>
-      <c r="B42" s="56"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="57"/>
+      <c r="E42" s="61"/>
       <c r="F42" s="16"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -5317,15 +5320,15 @@
       <c r="CF42" s="15"/>
     </row>
     <row r="43" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
-      <c r="B43" s="56"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="57"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="16"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -5407,8 +5410,8 @@
       <c r="CF43" s="15"/>
     </row>
     <row r="44" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="58"/>
-      <c r="B44" s="56"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
@@ -5499,8 +5502,8 @@
       <c r="CF44" s="15"/>
     </row>
     <row r="45" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
-      <c r="B45" s="56"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="3" t="s">
         <v>45</v>
       </c>
@@ -5591,8 +5594,8 @@
       <c r="CF45" s="15"/>
     </row>
     <row r="46" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
-      <c r="B46" s="56"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
@@ -5683,10 +5686,10 @@
       <c r="CF46" s="15"/>
     </row>
     <row r="47" spans="1:84" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="58">
+      <c r="A47" s="66">
         <v>5</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="60" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -5695,7 +5698,7 @@
       <c r="D47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F47" s="16"/>
@@ -5779,15 +5782,15 @@
       <c r="CF47" s="15"/>
     </row>
     <row r="48" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
-      <c r="B48" s="56"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="57"/>
+      <c r="E48" s="61"/>
       <c r="F48" s="16"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -5869,15 +5872,15 @@
       <c r="CF48" s="15"/>
     </row>
     <row r="49" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
-      <c r="B49" s="56"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="57"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="16"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -5959,15 +5962,15 @@
       <c r="CF49" s="15"/>
     </row>
     <row r="50" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
-      <c r="B50" s="56"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="57"/>
+      <c r="E50" s="61"/>
       <c r="F50" s="16"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -6049,15 +6052,15 @@
       <c r="CF50" s="15"/>
     </row>
     <row r="51" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
-      <c r="B51" s="56"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="57"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="16"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -6139,15 +6142,15 @@
       <c r="CF51" s="15"/>
     </row>
     <row r="52" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="56"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="57"/>
+      <c r="E52" s="61"/>
       <c r="F52" s="16"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -6229,15 +6232,15 @@
       <c r="CF52" s="15"/>
     </row>
     <row r="53" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
-      <c r="B53" s="56"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="57"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="16"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
@@ -6319,8 +6322,8 @@
       <c r="CF53" s="15"/>
     </row>
     <row r="54" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
-      <c r="B54" s="56"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="3" t="s">
         <v>16</v>
       </c>
@@ -6411,8 +6414,8 @@
       <c r="CF54" s="15"/>
     </row>
     <row r="55" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A55" s="58"/>
-      <c r="B55" s="56"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="3" t="s">
         <v>45</v>
       </c>
@@ -6503,8 +6506,8 @@
       <c r="CF55" s="15"/>
     </row>
     <row r="56" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
-      <c r="B56" s="56"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="3" t="s">
         <v>17</v>
       </c>
@@ -6595,10 +6598,10 @@
       <c r="CF56" s="15"/>
     </row>
     <row r="57" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="58">
+      <c r="A57" s="66">
         <v>6</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="60" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -6607,7 +6610,7 @@
       <c r="D57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F57" s="16"/>
@@ -6691,15 +6694,15 @@
       <c r="CF57" s="15"/>
     </row>
     <row r="58" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="58"/>
-      <c r="B58" s="56"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="57"/>
+      <c r="E58" s="61"/>
       <c r="F58" s="16"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -6781,15 +6784,15 @@
       <c r="CF58" s="15"/>
     </row>
     <row r="59" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="58"/>
-      <c r="B59" s="56"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="57"/>
+      <c r="E59" s="61"/>
       <c r="F59" s="16"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -6871,15 +6874,15 @@
       <c r="CF59" s="15"/>
     </row>
     <row r="60" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="58"/>
-      <c r="B60" s="56"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="57"/>
+      <c r="E60" s="61"/>
       <c r="F60" s="16"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -6961,15 +6964,15 @@
       <c r="CF60" s="15"/>
     </row>
     <row r="61" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="58"/>
-      <c r="B61" s="56"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E61" s="57"/>
+      <c r="E61" s="61"/>
       <c r="F61" s="21"/>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
@@ -7051,15 +7054,15 @@
       <c r="CF61" s="15"/>
     </row>
     <row r="62" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="58"/>
-      <c r="B62" s="56"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="57"/>
+      <c r="E62" s="61"/>
       <c r="F62" s="21"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
@@ -7141,8 +7144,8 @@
       <c r="CF62" s="15"/>
     </row>
     <row r="63" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="58"/>
-      <c r="B63" s="56"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
@@ -7233,8 +7236,8 @@
       <c r="CF63" s="15"/>
     </row>
     <row r="64" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="58"/>
-      <c r="B64" s="56"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="3" t="s">
         <v>16</v>
       </c>
@@ -7325,8 +7328,8 @@
       <c r="CF64" s="15"/>
     </row>
     <row r="65" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="58"/>
-      <c r="B65" s="56"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="3" t="s">
         <v>45</v>
       </c>
@@ -7417,8 +7420,8 @@
       <c r="CF65" s="15"/>
     </row>
     <row r="66" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="58"/>
-      <c r="B66" s="56"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="3" t="s">
         <v>17</v>
       </c>
@@ -7509,10 +7512,10 @@
       <c r="CF66" s="15"/>
     </row>
     <row r="67" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="58">
+      <c r="A67" s="66">
         <v>7</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="60" t="s">
         <v>23</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -7521,7 +7524,7 @@
       <c r="D67" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="57" t="s">
+      <c r="E67" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F67" s="21"/>
@@ -7605,15 +7608,15 @@
       <c r="CF67" s="15"/>
     </row>
     <row r="68" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="58"/>
-      <c r="B68" s="56"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="57"/>
+      <c r="E68" s="61"/>
       <c r="F68" s="21"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
@@ -7695,15 +7698,15 @@
       <c r="CF68" s="15"/>
     </row>
     <row r="69" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="58"/>
-      <c r="B69" s="56"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="57"/>
+      <c r="E69" s="61"/>
       <c r="F69" s="21"/>
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
@@ -7785,15 +7788,15 @@
       <c r="CF69" s="15"/>
     </row>
     <row r="70" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="58"/>
-      <c r="B70" s="56"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="57"/>
+      <c r="E70" s="61"/>
       <c r="F70" s="21"/>
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
@@ -7875,15 +7878,15 @@
       <c r="CF70" s="15"/>
     </row>
     <row r="71" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="58"/>
-      <c r="B71" s="56"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="57"/>
+      <c r="E71" s="61"/>
       <c r="F71" s="21"/>
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
@@ -7965,15 +7968,15 @@
       <c r="CF71" s="15"/>
     </row>
     <row r="72" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="58"/>
-      <c r="B72" s="56"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="60"/>
       <c r="C72" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="57"/>
+      <c r="E72" s="61"/>
       <c r="F72" s="21"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
@@ -8055,8 +8058,8 @@
       <c r="CF72" s="15"/>
     </row>
     <row r="73" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="58"/>
-      <c r="B73" s="56"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="60"/>
       <c r="C73" s="3" t="s">
         <v>15</v>
       </c>
@@ -8147,8 +8150,8 @@
       <c r="CF73" s="15"/>
     </row>
     <row r="74" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="58"/>
-      <c r="B74" s="56"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="60"/>
       <c r="C74" s="3" t="s">
         <v>16</v>
       </c>
@@ -8239,8 +8242,8 @@
       <c r="CF74" s="15"/>
     </row>
     <row r="75" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="58"/>
-      <c r="B75" s="56"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="60"/>
       <c r="C75" s="3" t="s">
         <v>45</v>
       </c>
@@ -8331,8 +8334,8 @@
       <c r="CF75" s="15"/>
     </row>
     <row r="76" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="58"/>
-      <c r="B76" s="56"/>
+      <c r="A76" s="66"/>
+      <c r="B76" s="60"/>
       <c r="C76" s="3" t="s">
         <v>17</v>
       </c>
@@ -8423,10 +8426,10 @@
       <c r="CF76" s="15"/>
     </row>
     <row r="77" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="60">
+      <c r="A77" s="67">
         <v>8</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="60" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -8435,7 +8438,7 @@
       <c r="D77" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="57" t="s">
+      <c r="E77" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F77" s="16"/>
@@ -8519,15 +8522,15 @@
       <c r="CF77" s="15"/>
     </row>
     <row r="78" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="60"/>
-      <c r="B78" s="56"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="60"/>
       <c r="C78" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="57"/>
+      <c r="E78" s="61"/>
       <c r="F78" s="16"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -8609,15 +8612,15 @@
       <c r="CF78" s="15"/>
     </row>
     <row r="79" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="60"/>
-      <c r="B79" s="56"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="60"/>
       <c r="C79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="57"/>
+      <c r="E79" s="61"/>
       <c r="F79" s="21"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
@@ -8699,15 +8702,15 @@
       <c r="CF79" s="15"/>
     </row>
     <row r="80" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="60"/>
-      <c r="B80" s="56"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="60"/>
       <c r="C80" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="57"/>
+      <c r="E80" s="61"/>
       <c r="F80" s="21"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
@@ -8789,15 +8792,15 @@
       <c r="CF80" s="15"/>
     </row>
     <row r="81" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="60"/>
-      <c r="B81" s="56"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="60"/>
       <c r="C81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="57"/>
+      <c r="E81" s="61"/>
       <c r="F81" s="21"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
@@ -8879,15 +8882,15 @@
       <c r="CF81" s="15"/>
     </row>
     <row r="82" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="60"/>
-      <c r="B82" s="56"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="60"/>
       <c r="C82" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="57"/>
+      <c r="E82" s="61"/>
       <c r="F82" s="21"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
@@ -8969,8 +8972,8 @@
       <c r="CF82" s="15"/>
     </row>
     <row r="83" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="60"/>
-      <c r="B83" s="56"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="60"/>
       <c r="C83" s="3" t="s">
         <v>15</v>
       </c>
@@ -9061,8 +9064,8 @@
       <c r="CF83" s="15"/>
     </row>
     <row r="84" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="60"/>
-      <c r="B84" s="56"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="60"/>
       <c r="C84" s="3" t="s">
         <v>16</v>
       </c>
@@ -9153,8 +9156,8 @@
       <c r="CF84" s="15"/>
     </row>
     <row r="85" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="60"/>
-      <c r="B85" s="56"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="60"/>
       <c r="C85" s="3" t="s">
         <v>45</v>
       </c>
@@ -9245,8 +9248,8 @@
       <c r="CF85" s="15"/>
     </row>
     <row r="86" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="60"/>
-      <c r="B86" s="56"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="60"/>
       <c r="C86" s="3" t="s">
         <v>17</v>
       </c>
@@ -9337,10 +9340,10 @@
       <c r="CF86" s="15"/>
     </row>
     <row r="87" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="58">
+      <c r="A87" s="66">
         <v>9</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -9349,7 +9352,7 @@
       <c r="D87" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="57" t="s">
+      <c r="E87" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F87" s="16"/>
@@ -9433,15 +9436,15 @@
       <c r="CF87" s="15"/>
     </row>
     <row r="88" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="58"/>
-      <c r="B88" s="56"/>
+      <c r="A88" s="66"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E88" s="57"/>
+      <c r="E88" s="61"/>
       <c r="F88" s="16"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -9523,15 +9526,15 @@
       <c r="CF88" s="15"/>
     </row>
     <row r="89" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="58"/>
-      <c r="B89" s="56"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="60"/>
       <c r="C89" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="57"/>
+      <c r="E89" s="61"/>
       <c r="F89" s="16"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -9613,15 +9616,15 @@
       <c r="CF89" s="15"/>
     </row>
     <row r="90" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="58"/>
-      <c r="B90" s="56"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="60"/>
       <c r="C90" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E90" s="57"/>
+      <c r="E90" s="61"/>
       <c r="F90" s="16"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
@@ -9703,15 +9706,15 @@
       <c r="CF90" s="15"/>
     </row>
     <row r="91" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="58"/>
-      <c r="B91" s="56"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="60"/>
       <c r="C91" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E91" s="57"/>
+      <c r="E91" s="61"/>
       <c r="F91" s="16"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -9793,15 +9796,15 @@
       <c r="CF91" s="15"/>
     </row>
     <row r="92" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="58"/>
-      <c r="B92" s="56"/>
+      <c r="A92" s="66"/>
+      <c r="B92" s="60"/>
       <c r="C92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="57"/>
+      <c r="E92" s="61"/>
       <c r="F92" s="16"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -9883,15 +9886,15 @@
       <c r="CF92" s="15"/>
     </row>
     <row r="93" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="58"/>
-      <c r="B93" s="56"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="60"/>
       <c r="C93" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E93" s="57"/>
+      <c r="E93" s="61"/>
       <c r="F93" s="16"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
@@ -9973,8 +9976,8 @@
       <c r="CF93" s="15"/>
     </row>
     <row r="94" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="58"/>
-      <c r="B94" s="56"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="60"/>
       <c r="C94" s="3" t="s">
         <v>15</v>
       </c>
@@ -10065,8 +10068,8 @@
       <c r="CF94" s="15"/>
     </row>
     <row r="95" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="58"/>
-      <c r="B95" s="56"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="60"/>
       <c r="C95" s="3" t="s">
         <v>16</v>
       </c>
@@ -10157,8 +10160,8 @@
       <c r="CF95" s="15"/>
     </row>
     <row r="96" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="58"/>
-      <c r="B96" s="56"/>
+      <c r="A96" s="66"/>
+      <c r="B96" s="60"/>
       <c r="C96" s="3" t="s">
         <v>45</v>
       </c>
@@ -10249,8 +10252,8 @@
       <c r="CF96" s="15"/>
     </row>
     <row r="97" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="58"/>
-      <c r="B97" s="56"/>
+      <c r="A97" s="66"/>
+      <c r="B97" s="60"/>
       <c r="C97" s="3" t="s">
         <v>17</v>
       </c>
@@ -10341,10 +10344,10 @@
       <c r="CF97" s="15"/>
     </row>
     <row r="98" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="58">
+      <c r="A98" s="66">
         <v>10</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="60" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -10353,7 +10356,7 @@
       <c r="D98" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="57" t="s">
+      <c r="E98" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F98" s="16"/>
@@ -10437,15 +10440,15 @@
       <c r="CF98" s="15"/>
     </row>
     <row r="99" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="58"/>
-      <c r="B99" s="56"/>
+      <c r="A99" s="66"/>
+      <c r="B99" s="60"/>
       <c r="C99" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E99" s="57"/>
+      <c r="E99" s="61"/>
       <c r="F99" s="16"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
@@ -10527,15 +10530,15 @@
       <c r="CF99" s="15"/>
     </row>
     <row r="100" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="58"/>
-      <c r="B100" s="56"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="60"/>
       <c r="C100" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="57"/>
+      <c r="E100" s="61"/>
       <c r="F100" s="16"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
@@ -10617,15 +10620,15 @@
       <c r="CF100" s="15"/>
     </row>
     <row r="101" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="58"/>
-      <c r="B101" s="56"/>
+      <c r="A101" s="66"/>
+      <c r="B101" s="60"/>
       <c r="C101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E101" s="57"/>
+      <c r="E101" s="61"/>
       <c r="F101" s="16"/>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
@@ -10707,15 +10710,15 @@
       <c r="CF101" s="15"/>
     </row>
     <row r="102" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="58"/>
-      <c r="B102" s="56"/>
+      <c r="A102" s="66"/>
+      <c r="B102" s="60"/>
       <c r="C102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="57"/>
+      <c r="E102" s="61"/>
       <c r="F102" s="16"/>
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
@@ -10797,15 +10800,15 @@
       <c r="CF102" s="15"/>
     </row>
     <row r="103" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="58"/>
-      <c r="B103" s="56"/>
+      <c r="A103" s="66"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E103" s="57"/>
+      <c r="E103" s="61"/>
       <c r="F103" s="16"/>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
@@ -10887,8 +10890,8 @@
       <c r="CF103" s="15"/>
     </row>
     <row r="104" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="58"/>
-      <c r="B104" s="56"/>
+      <c r="A104" s="66"/>
+      <c r="B104" s="60"/>
       <c r="C104" s="3" t="s">
         <v>15</v>
       </c>
@@ -10979,8 +10982,8 @@
       <c r="CF104" s="15"/>
     </row>
     <row r="105" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="58"/>
-      <c r="B105" s="56"/>
+      <c r="A105" s="66"/>
+      <c r="B105" s="60"/>
       <c r="C105" s="3" t="s">
         <v>16</v>
       </c>
@@ -11071,8 +11074,8 @@
       <c r="CF105" s="15"/>
     </row>
     <row r="106" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="58"/>
-      <c r="B106" s="56"/>
+      <c r="A106" s="66"/>
+      <c r="B106" s="60"/>
       <c r="C106" s="3" t="s">
         <v>45</v>
       </c>
@@ -11163,8 +11166,8 @@
       <c r="CF106" s="15"/>
     </row>
     <row r="107" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="58"/>
-      <c r="B107" s="56"/>
+      <c r="A107" s="66"/>
+      <c r="B107" s="60"/>
       <c r="C107" s="3" t="s">
         <v>17</v>
       </c>
@@ -11255,10 +11258,10 @@
       <c r="CF107" s="15"/>
     </row>
     <row r="108" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="58">
+      <c r="A108" s="66">
         <v>11</v>
       </c>
-      <c r="B108" s="56" t="s">
+      <c r="B108" s="60" t="s">
         <v>27</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -11267,7 +11270,7 @@
       <c r="D108" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E108" s="57" t="s">
+      <c r="E108" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F108" s="16"/>
@@ -11351,15 +11354,15 @@
       <c r="CF108" s="15"/>
     </row>
     <row r="109" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="58"/>
-      <c r="B109" s="56"/>
+      <c r="A109" s="66"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E109" s="57"/>
+      <c r="E109" s="61"/>
       <c r="F109" s="16"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
@@ -11441,15 +11444,15 @@
       <c r="CF109" s="15"/>
     </row>
     <row r="110" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="58"/>
-      <c r="B110" s="56"/>
+      <c r="A110" s="66"/>
+      <c r="B110" s="60"/>
       <c r="C110" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="57"/>
+      <c r="E110" s="61"/>
       <c r="F110" s="16"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
@@ -11531,15 +11534,15 @@
       <c r="CF110" s="15"/>
     </row>
     <row r="111" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="58"/>
-      <c r="B111" s="56"/>
+      <c r="A111" s="66"/>
+      <c r="B111" s="60"/>
       <c r="C111" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E111" s="57"/>
+      <c r="E111" s="61"/>
       <c r="F111" s="16"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
@@ -11621,15 +11624,15 @@
       <c r="CF111" s="15"/>
     </row>
     <row r="112" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="58"/>
-      <c r="B112" s="56"/>
+      <c r="A112" s="66"/>
+      <c r="B112" s="60"/>
       <c r="C112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="57"/>
+      <c r="E112" s="61"/>
       <c r="F112" s="16"/>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
@@ -11711,15 +11714,15 @@
       <c r="CF112" s="15"/>
     </row>
     <row r="113" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="58"/>
-      <c r="B113" s="56"/>
+      <c r="A113" s="66"/>
+      <c r="B113" s="60"/>
       <c r="C113" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E113" s="57"/>
+      <c r="E113" s="61"/>
       <c r="F113" s="16"/>
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
@@ -11801,8 +11804,8 @@
       <c r="CF113" s="15"/>
     </row>
     <row r="114" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="58"/>
-      <c r="B114" s="56"/>
+      <c r="A114" s="66"/>
+      <c r="B114" s="60"/>
       <c r="C114" s="3" t="s">
         <v>15</v>
       </c>
@@ -11893,8 +11896,8 @@
       <c r="CF114" s="15"/>
     </row>
     <row r="115" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="58"/>
-      <c r="B115" s="56"/>
+      <c r="A115" s="66"/>
+      <c r="B115" s="60"/>
       <c r="C115" s="3" t="s">
         <v>16</v>
       </c>
@@ -11985,8 +11988,8 @@
       <c r="CF115" s="15"/>
     </row>
     <row r="116" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="58"/>
-      <c r="B116" s="56"/>
+      <c r="A116" s="66"/>
+      <c r="B116" s="60"/>
       <c r="C116" s="3" t="s">
         <v>45</v>
       </c>
@@ -12077,8 +12080,8 @@
       <c r="CF116" s="15"/>
     </row>
     <row r="117" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="58"/>
-      <c r="B117" s="56"/>
+      <c r="A117" s="66"/>
+      <c r="B117" s="60"/>
       <c r="C117" s="3" t="s">
         <v>17</v>
       </c>
@@ -12169,10 +12172,10 @@
       <c r="CF117" s="15"/>
     </row>
     <row r="118" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="58">
+      <c r="A118" s="66">
         <v>12</v>
       </c>
-      <c r="B118" s="56" t="s">
+      <c r="B118" s="60" t="s">
         <v>55</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -12181,7 +12184,7 @@
       <c r="D118" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="57" t="s">
+      <c r="E118" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F118" s="16"/>
@@ -12265,15 +12268,15 @@
       <c r="CF118" s="15"/>
     </row>
     <row r="119" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="58"/>
-      <c r="B119" s="56"/>
+      <c r="A119" s="66"/>
+      <c r="B119" s="60"/>
       <c r="C119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E119" s="57"/>
+      <c r="E119" s="61"/>
       <c r="F119" s="16"/>
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
@@ -12355,15 +12358,15 @@
       <c r="CF119" s="15"/>
     </row>
     <row r="120" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="58"/>
-      <c r="B120" s="56"/>
+      <c r="A120" s="66"/>
+      <c r="B120" s="60"/>
       <c r="C120" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="57"/>
+      <c r="E120" s="61"/>
       <c r="F120" s="16"/>
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
@@ -12445,15 +12448,15 @@
       <c r="CF120" s="15"/>
     </row>
     <row r="121" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="58"/>
-      <c r="B121" s="56"/>
+      <c r="A121" s="66"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E121" s="57"/>
+      <c r="E121" s="61"/>
       <c r="F121" s="16"/>
       <c r="G121" s="13"/>
       <c r="H121" s="13"/>
@@ -12535,15 +12538,15 @@
       <c r="CF121" s="15"/>
     </row>
     <row r="122" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="58"/>
-      <c r="B122" s="56"/>
+      <c r="A122" s="66"/>
+      <c r="B122" s="60"/>
       <c r="C122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="57"/>
+      <c r="E122" s="61"/>
       <c r="F122" s="16"/>
       <c r="G122" s="13"/>
       <c r="H122" s="13"/>
@@ -12625,15 +12628,15 @@
       <c r="CF122" s="15"/>
     </row>
     <row r="123" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="58"/>
-      <c r="B123" s="56"/>
+      <c r="A123" s="66"/>
+      <c r="B123" s="60"/>
       <c r="C123" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E123" s="57"/>
+      <c r="E123" s="61"/>
       <c r="F123" s="16"/>
       <c r="G123" s="13"/>
       <c r="H123" s="13"/>
@@ -12715,8 +12718,8 @@
       <c r="CF123" s="15"/>
     </row>
     <row r="124" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="58"/>
-      <c r="B124" s="56"/>
+      <c r="A124" s="66"/>
+      <c r="B124" s="60"/>
       <c r="C124" s="3" t="s">
         <v>15</v>
       </c>
@@ -12807,8 +12810,8 @@
       <c r="CF124" s="15"/>
     </row>
     <row r="125" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="58"/>
-      <c r="B125" s="56"/>
+      <c r="A125" s="66"/>
+      <c r="B125" s="60"/>
       <c r="C125" s="3" t="s">
         <v>16</v>
       </c>
@@ -12899,8 +12902,8 @@
       <c r="CF125" s="15"/>
     </row>
     <row r="126" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="58"/>
-      <c r="B126" s="56"/>
+      <c r="A126" s="66"/>
+      <c r="B126" s="60"/>
       <c r="C126" s="3" t="s">
         <v>45</v>
       </c>
@@ -12991,8 +12994,8 @@
       <c r="CF126" s="15"/>
     </row>
     <row r="127" spans="1:84" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="58"/>
-      <c r="B127" s="56"/>
+      <c r="A127" s="66"/>
+      <c r="B127" s="60"/>
       <c r="C127" s="3" t="s">
         <v>17</v>
       </c>
@@ -13083,10 +13086,10 @@
       <c r="CF127" s="15"/>
     </row>
     <row r="128" spans="1:84" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="58">
+      <c r="A128" s="66">
         <v>13</v>
       </c>
-      <c r="B128" s="56" t="s">
+      <c r="B128" s="60" t="s">
         <v>57</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -13095,7 +13098,7 @@
       <c r="D128" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="57" t="s">
+      <c r="E128" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F128" s="16"/>
@@ -13179,15 +13182,15 @@
       <c r="CF128" s="15"/>
     </row>
     <row r="129" spans="1:84" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="58"/>
-      <c r="B129" s="56"/>
+      <c r="A129" s="66"/>
+      <c r="B129" s="60"/>
       <c r="C129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E129" s="57"/>
+      <c r="E129" s="61"/>
       <c r="F129" s="16"/>
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
@@ -13269,15 +13272,15 @@
       <c r="CF129" s="15"/>
     </row>
     <row r="130" spans="1:84" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="58"/>
-      <c r="B130" s="56"/>
+      <c r="A130" s="66"/>
+      <c r="B130" s="60"/>
       <c r="C130" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E130" s="57"/>
+      <c r="E130" s="61"/>
       <c r="F130" s="16"/>
       <c r="G130" s="13"/>
       <c r="H130" s="13"/>
@@ -13359,15 +13362,15 @@
       <c r="CF130" s="15"/>
     </row>
     <row r="131" spans="1:84" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="58"/>
-      <c r="B131" s="56"/>
+      <c r="A131" s="66"/>
+      <c r="B131" s="60"/>
       <c r="C131" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E131" s="57"/>
+      <c r="E131" s="61"/>
       <c r="F131" s="16"/>
       <c r="G131" s="13"/>
       <c r="H131" s="13"/>
@@ -13449,15 +13452,15 @@
       <c r="CF131" s="15"/>
     </row>
     <row r="132" spans="1:84" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="58"/>
-      <c r="B132" s="56"/>
+      <c r="A132" s="66"/>
+      <c r="B132" s="60"/>
       <c r="C132" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E132" s="57"/>
+      <c r="E132" s="61"/>
       <c r="F132" s="16"/>
       <c r="G132" s="13"/>
       <c r="H132" s="13"/>
@@ -13539,15 +13542,15 @@
       <c r="CF132" s="15"/>
     </row>
     <row r="133" spans="1:84" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="58"/>
-      <c r="B133" s="56"/>
+      <c r="A133" s="66"/>
+      <c r="B133" s="60"/>
       <c r="C133" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E133" s="57"/>
+      <c r="E133" s="61"/>
       <c r="F133" s="16"/>
       <c r="G133" s="13"/>
       <c r="H133" s="13"/>
@@ -13629,8 +13632,8 @@
       <c r="CF133" s="15"/>
     </row>
     <row r="134" spans="1:84" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="58"/>
-      <c r="B134" s="56"/>
+      <c r="A134" s="66"/>
+      <c r="B134" s="60"/>
       <c r="C134" s="3" t="s">
         <v>15</v>
       </c>
@@ -13721,8 +13724,8 @@
       <c r="CF134" s="15"/>
     </row>
     <row r="135" spans="1:84" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="58"/>
-      <c r="B135" s="56"/>
+      <c r="A135" s="66"/>
+      <c r="B135" s="60"/>
       <c r="C135" s="3" t="s">
         <v>16</v>
       </c>
@@ -13813,8 +13816,8 @@
       <c r="CF135" s="15"/>
     </row>
     <row r="136" spans="1:84" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="58"/>
-      <c r="B136" s="56"/>
+      <c r="A136" s="66"/>
+      <c r="B136" s="60"/>
       <c r="C136" s="3" t="s">
         <v>45</v>
       </c>
@@ -13905,8 +13908,8 @@
       <c r="CF136" s="15"/>
     </row>
     <row r="137" spans="1:84" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="58"/>
-      <c r="B137" s="56"/>
+      <c r="A137" s="66"/>
+      <c r="B137" s="60"/>
       <c r="C137" s="3" t="s">
         <v>17</v>
       </c>
@@ -13997,10 +14000,10 @@
       <c r="CF137" s="15"/>
     </row>
     <row r="138" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="58">
+      <c r="A138" s="66">
         <v>14</v>
       </c>
-      <c r="B138" s="56" t="s">
+      <c r="B138" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -14009,7 +14012,7 @@
       <c r="D138" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="57" t="s">
+      <c r="E138" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F138" s="16"/>
@@ -14093,15 +14096,15 @@
       <c r="CF138" s="15"/>
     </row>
     <row r="139" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="58"/>
-      <c r="B139" s="56"/>
+      <c r="A139" s="66"/>
+      <c r="B139" s="60"/>
       <c r="C139" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E139" s="57"/>
+      <c r="E139" s="61"/>
       <c r="F139" s="16"/>
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
@@ -14183,15 +14186,15 @@
       <c r="CF139" s="15"/>
     </row>
     <row r="140" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="58"/>
-      <c r="B140" s="56"/>
+      <c r="A140" s="66"/>
+      <c r="B140" s="60"/>
       <c r="C140" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="57"/>
+      <c r="E140" s="61"/>
       <c r="F140" s="16"/>
       <c r="G140" s="13"/>
       <c r="H140" s="13"/>
@@ -14273,15 +14276,15 @@
       <c r="CF140" s="15"/>
     </row>
     <row r="141" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="58"/>
-      <c r="B141" s="56"/>
+      <c r="A141" s="66"/>
+      <c r="B141" s="60"/>
       <c r="C141" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E141" s="57"/>
+      <c r="E141" s="61"/>
       <c r="F141" s="16"/>
       <c r="G141" s="13"/>
       <c r="H141" s="13"/>
@@ -14363,15 +14366,15 @@
       <c r="CF141" s="15"/>
     </row>
     <row r="142" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="58"/>
-      <c r="B142" s="56"/>
+      <c r="A142" s="66"/>
+      <c r="B142" s="60"/>
       <c r="C142" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E142" s="57"/>
+      <c r="E142" s="61"/>
       <c r="F142" s="16"/>
       <c r="G142" s="13"/>
       <c r="H142" s="13"/>
@@ -14453,8 +14456,8 @@
       <c r="CF142" s="15"/>
     </row>
     <row r="143" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="58"/>
-      <c r="B143" s="56"/>
+      <c r="A143" s="66"/>
+      <c r="B143" s="60"/>
       <c r="C143" s="3" t="s">
         <v>60</v>
       </c>
@@ -14545,8 +14548,8 @@
       <c r="CF143" s="15"/>
     </row>
     <row r="144" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="58"/>
-      <c r="B144" s="56"/>
+      <c r="A144" s="66"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="3" t="s">
         <v>62</v>
       </c>
@@ -14637,8 +14640,8 @@
       <c r="CF144" s="15"/>
     </row>
     <row r="145" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="58"/>
-      <c r="B145" s="56"/>
+      <c r="A145" s="66"/>
+      <c r="B145" s="60"/>
       <c r="C145" s="3" t="s">
         <v>63</v>
       </c>
@@ -14727,8 +14730,8 @@
       <c r="CF145" s="15"/>
     </row>
     <row r="146" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="58"/>
-      <c r="B146" s="56"/>
+      <c r="A146" s="66"/>
+      <c r="B146" s="60"/>
       <c r="C146" s="3" t="s">
         <v>64</v>
       </c>
@@ -14817,8 +14820,8 @@
       <c r="CF146" s="15"/>
     </row>
     <row r="147" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="58"/>
-      <c r="B147" s="56"/>
+      <c r="A147" s="66"/>
+      <c r="B147" s="60"/>
       <c r="C147" s="3" t="s">
         <v>12</v>
       </c>
@@ -14909,8 +14912,8 @@
       <c r="CF147" s="15"/>
     </row>
     <row r="148" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="58"/>
-      <c r="B148" s="56"/>
+      <c r="A148" s="66"/>
+      <c r="B148" s="60"/>
       <c r="C148" s="3" t="s">
         <v>14</v>
       </c>
@@ -15001,8 +15004,8 @@
       <c r="CF148" s="15"/>
     </row>
     <row r="149" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="58"/>
-      <c r="B149" s="56"/>
+      <c r="A149" s="66"/>
+      <c r="B149" s="60"/>
       <c r="C149" s="3" t="s">
         <v>15</v>
       </c>
@@ -15093,8 +15096,8 @@
       <c r="CF149" s="15"/>
     </row>
     <row r="150" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="58"/>
-      <c r="B150" s="56"/>
+      <c r="A150" s="66"/>
+      <c r="B150" s="60"/>
       <c r="C150" s="3" t="s">
         <v>16</v>
       </c>
@@ -15185,8 +15188,8 @@
       <c r="CF150" s="15"/>
     </row>
     <row r="151" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="58"/>
-      <c r="B151" s="56"/>
+      <c r="A151" s="66"/>
+      <c r="B151" s="60"/>
       <c r="C151" s="3" t="s">
         <v>45</v>
       </c>
@@ -15277,8 +15280,8 @@
       <c r="CF151" s="15"/>
     </row>
     <row r="152" spans="1:84" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="58"/>
-      <c r="B152" s="56"/>
+      <c r="A152" s="66"/>
+      <c r="B152" s="60"/>
       <c r="C152" s="3" t="s">
         <v>17</v>
       </c>
@@ -15369,10 +15372,10 @@
       <c r="CF152" s="32"/>
     </row>
     <row r="153" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="58">
+      <c r="A153" s="66">
         <v>15</v>
       </c>
-      <c r="B153" s="56" t="s">
+      <c r="B153" s="60" t="s">
         <v>29</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -15381,7 +15384,7 @@
       <c r="D153" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="57" t="s">
+      <c r="E153" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F153" s="16"/>
@@ -15465,15 +15468,15 @@
       <c r="CF153" s="15"/>
     </row>
     <row r="154" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="58"/>
-      <c r="B154" s="56"/>
+      <c r="A154" s="66"/>
+      <c r="B154" s="60"/>
       <c r="C154" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="57"/>
+      <c r="E154" s="61"/>
       <c r="F154" s="16"/>
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
@@ -15555,15 +15558,15 @@
       <c r="CF154" s="15"/>
     </row>
     <row r="155" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="58"/>
-      <c r="B155" s="56"/>
+      <c r="A155" s="66"/>
+      <c r="B155" s="60"/>
       <c r="C155" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="57"/>
+      <c r="E155" s="61"/>
       <c r="F155" s="16"/>
       <c r="G155" s="13"/>
       <c r="H155" s="13"/>
@@ -15645,15 +15648,15 @@
       <c r="CF155" s="15"/>
     </row>
     <row r="156" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="58"/>
-      <c r="B156" s="56"/>
+      <c r="A156" s="66"/>
+      <c r="B156" s="60"/>
       <c r="C156" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E156" s="57"/>
+      <c r="E156" s="61"/>
       <c r="F156" s="16"/>
       <c r="G156" s="13"/>
       <c r="H156" s="13"/>
@@ -15735,15 +15738,15 @@
       <c r="CF156" s="15"/>
     </row>
     <row r="157" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="58"/>
-      <c r="B157" s="56"/>
+      <c r="A157" s="66"/>
+      <c r="B157" s="60"/>
       <c r="C157" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E157" s="57"/>
+      <c r="E157" s="61"/>
       <c r="F157" s="16"/>
       <c r="G157" s="13"/>
       <c r="H157" s="13"/>
@@ -15825,15 +15828,15 @@
       <c r="CF157" s="15"/>
     </row>
     <row r="158" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="58"/>
-      <c r="B158" s="56"/>
+      <c r="A158" s="66"/>
+      <c r="B158" s="60"/>
       <c r="C158" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E158" s="57"/>
+      <c r="E158" s="61"/>
       <c r="F158" s="16"/>
       <c r="G158" s="13"/>
       <c r="H158" s="13"/>
@@ -15915,8 +15918,8 @@
       <c r="CF158" s="15"/>
     </row>
     <row r="159" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="58"/>
-      <c r="B159" s="56"/>
+      <c r="A159" s="66"/>
+      <c r="B159" s="60"/>
       <c r="C159" s="3" t="s">
         <v>15</v>
       </c>
@@ -16007,8 +16010,8 @@
       <c r="CF159" s="15"/>
     </row>
     <row r="160" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="58"/>
-      <c r="B160" s="56"/>
+      <c r="A160" s="66"/>
+      <c r="B160" s="60"/>
       <c r="C160" s="3" t="s">
         <v>16</v>
       </c>
@@ -16099,8 +16102,8 @@
       <c r="CF160" s="15"/>
     </row>
     <row r="161" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="58"/>
-      <c r="B161" s="56"/>
+      <c r="A161" s="66"/>
+      <c r="B161" s="60"/>
       <c r="C161" s="3" t="s">
         <v>45</v>
       </c>
@@ -16191,8 +16194,8 @@
       <c r="CF161" s="15"/>
     </row>
     <row r="162" spans="1:84" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="58"/>
-      <c r="B162" s="56"/>
+      <c r="A162" s="66"/>
+      <c r="B162" s="60"/>
       <c r="C162" s="3" t="s">
         <v>17</v>
       </c>
@@ -16283,10 +16286,10 @@
       <c r="CF162" s="15"/>
     </row>
     <row r="163" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A163" s="58">
+      <c r="A163" s="66">
         <v>16</v>
       </c>
-      <c r="B163" s="56" t="s">
+      <c r="B163" s="60" t="s">
         <v>30</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -16295,7 +16298,7 @@
       <c r="D163" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E163" s="57" t="s">
+      <c r="E163" s="61" t="s">
         <v>40</v>
       </c>
       <c r="F163" s="16"/>
@@ -16379,15 +16382,15 @@
       <c r="CF163" s="15"/>
     </row>
     <row r="164" spans="1:84" ht="30.6" x14ac:dyDescent="0.2">
-      <c r="A164" s="58"/>
-      <c r="B164" s="56"/>
+      <c r="A164" s="66"/>
+      <c r="B164" s="60"/>
       <c r="C164" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E164" s="57"/>
+      <c r="E164" s="61"/>
       <c r="F164" s="16"/>
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
@@ -16430,11 +16433,11 @@
       <c r="AS164" s="13"/>
       <c r="AT164" s="50"/>
       <c r="AU164" s="50"/>
-      <c r="AV164" s="66"/>
-      <c r="AW164" s="66"/>
-      <c r="AX164" s="66"/>
-      <c r="AY164" s="66"/>
-      <c r="AZ164" s="66"/>
+      <c r="AV164" s="55"/>
+      <c r="AW164" s="55"/>
+      <c r="AX164" s="55"/>
+      <c r="AY164" s="55"/>
+      <c r="AZ164" s="55"/>
       <c r="BA164" s="50"/>
       <c r="BB164" s="50"/>
       <c r="BC164" s="13"/>
@@ -16469,15 +16472,15 @@
       <c r="CF164" s="15"/>
     </row>
     <row r="165" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A165" s="58"/>
-      <c r="B165" s="56"/>
+      <c r="A165" s="66"/>
+      <c r="B165" s="60"/>
       <c r="C165" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E165" s="57"/>
+      <c r="E165" s="61"/>
       <c r="F165" s="16"/>
       <c r="G165" s="13"/>
       <c r="H165" s="13"/>
@@ -16559,15 +16562,15 @@
       <c r="CF165" s="15"/>
     </row>
     <row r="166" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A166" s="58"/>
-      <c r="B166" s="56"/>
+      <c r="A166" s="66"/>
+      <c r="B166" s="60"/>
       <c r="C166" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E166" s="57"/>
+      <c r="E166" s="61"/>
       <c r="F166" s="16"/>
       <c r="G166" s="13"/>
       <c r="H166" s="13"/>
@@ -16649,15 +16652,15 @@
       <c r="CF166" s="15"/>
     </row>
     <row r="167" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A167" s="58"/>
-      <c r="B167" s="56"/>
+      <c r="A167" s="66"/>
+      <c r="B167" s="60"/>
       <c r="C167" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E167" s="57"/>
+      <c r="E167" s="61"/>
       <c r="F167" s="16"/>
       <c r="G167" s="13"/>
       <c r="H167" s="13"/>
@@ -16739,15 +16742,15 @@
       <c r="CF167" s="15"/>
     </row>
     <row r="168" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A168" s="58"/>
-      <c r="B168" s="56"/>
+      <c r="A168" s="66"/>
+      <c r="B168" s="60"/>
       <c r="C168" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E168" s="57"/>
+      <c r="E168" s="61"/>
       <c r="F168" s="16"/>
       <c r="G168" s="13"/>
       <c r="H168" s="13"/>
@@ -16829,15 +16832,15 @@
       <c r="CF168" s="15"/>
     </row>
     <row r="169" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A169" s="58"/>
-      <c r="B169" s="56"/>
+      <c r="A169" s="66"/>
+      <c r="B169" s="60"/>
       <c r="C169" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E169" s="57"/>
+      <c r="E169" s="61"/>
       <c r="F169" s="16"/>
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
@@ -16914,8 +16917,8 @@
       <c r="CF169" s="15"/>
     </row>
     <row r="170" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A170" s="58"/>
-      <c r="B170" s="56"/>
+      <c r="A170" s="66"/>
+      <c r="B170" s="60"/>
       <c r="C170" s="3" t="s">
         <v>15</v>
       </c>
@@ -17006,8 +17009,8 @@
       <c r="CF170" s="15"/>
     </row>
     <row r="171" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A171" s="58"/>
-      <c r="B171" s="56"/>
+      <c r="A171" s="66"/>
+      <c r="B171" s="60"/>
       <c r="C171" s="3" t="s">
         <v>16</v>
       </c>
@@ -17098,8 +17101,8 @@
       <c r="CF171" s="15"/>
     </row>
     <row r="172" spans="1:84" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A172" s="58"/>
-      <c r="B172" s="56"/>
+      <c r="A172" s="66"/>
+      <c r="B172" s="60"/>
       <c r="C172" s="3" t="s">
         <v>45</v>
       </c>
@@ -17190,8 +17193,8 @@
       <c r="CF172" s="15"/>
     </row>
     <row r="173" spans="1:84" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="58"/>
-      <c r="B173" s="56"/>
+      <c r="A173" s="66"/>
+      <c r="B173" s="60"/>
       <c r="C173" s="3" t="s">
         <v>17</v>
       </c>
@@ -17283,12 +17286,12 @@
     </row>
     <row r="174" spans="1:84" ht="10.8" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="175" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A175" s="55" t="s">
+      <c r="A175" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B175" s="55"/>
-      <c r="C175" s="55"/>
-      <c r="D175" s="55"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="64"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -17507,13 +17510,135 @@
       <c r="B188" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C188" s="67"/>
+      <c r="C188" s="56"/>
       <c r="D188" s="39" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:CF173" xr:uid="{428D335D-B326-4157-AF9E-B79C8F66DCEE}">
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
+    <filterColumn colId="23" showButton="0"/>
+    <filterColumn colId="24" showButton="0"/>
+    <filterColumn colId="25" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
+    <filterColumn colId="27" showButton="0"/>
+    <filterColumn colId="28" showButton="0"/>
+    <filterColumn colId="29" showButton="0"/>
+    <filterColumn colId="30" showButton="0"/>
+    <filterColumn colId="31" showButton="0"/>
+    <filterColumn colId="32" showButton="0"/>
+    <filterColumn colId="33" showButton="0"/>
+    <filterColumn colId="34" showButton="0"/>
+    <filterColumn colId="35" showButton="0"/>
+    <filterColumn colId="36" showButton="0"/>
+    <filterColumn colId="37" showButton="0"/>
+    <filterColumn colId="38" showButton="0"/>
+    <filterColumn colId="39" showButton="0"/>
+    <filterColumn colId="40" showButton="0"/>
+    <filterColumn colId="41" showButton="0"/>
+    <filterColumn colId="43" showButton="0"/>
+    <filterColumn colId="44" showButton="0"/>
+    <filterColumn colId="45" showButton="0"/>
+    <filterColumn colId="46" showButton="0"/>
+    <filterColumn colId="47" showButton="0"/>
+    <filterColumn colId="48" showButton="0"/>
+    <filterColumn colId="49" showButton="0"/>
+    <filterColumn colId="50" showButton="0"/>
+    <filterColumn colId="51" showButton="0"/>
+    <filterColumn colId="52" showButton="0"/>
+    <filterColumn colId="53" showButton="0"/>
+    <filterColumn colId="54" showButton="0"/>
+    <filterColumn colId="55" showButton="0"/>
+    <filterColumn colId="56" showButton="0"/>
+    <filterColumn colId="57" showButton="0"/>
+    <filterColumn colId="58" showButton="0"/>
+    <filterColumn colId="59" showButton="0"/>
+    <filterColumn colId="60" showButton="0"/>
+    <filterColumn colId="61" showButton="0"/>
+    <filterColumn colId="62" showButton="0"/>
+    <filterColumn colId="63" showButton="0"/>
+    <filterColumn colId="64" showButton="0"/>
+    <filterColumn colId="65" showButton="0"/>
+    <filterColumn colId="66" showButton="0"/>
+    <filterColumn colId="67" showButton="0"/>
+    <filterColumn colId="68" showButton="0"/>
+    <filterColumn colId="69" showButton="0"/>
+    <filterColumn colId="70" showButton="0"/>
+    <filterColumn colId="71" showButton="0"/>
+    <filterColumn colId="72" showButton="0"/>
+    <filterColumn colId="74" showButton="0"/>
+    <filterColumn colId="75" showButton="0"/>
+    <filterColumn colId="76" showButton="0"/>
+    <filterColumn colId="77" showButton="0"/>
+    <filterColumn colId="78" showButton="0"/>
+    <filterColumn colId="79" showButton="0"/>
+    <filterColumn colId="80" showButton="0"/>
+    <filterColumn colId="81" showButton="0"/>
+    <filterColumn colId="82" showButton="0"/>
+  </autoFilter>
   <mergeCells count="60">
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="E37:E43"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="B67:B76"/>
+    <mergeCell ref="E67:E72"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="A87:A97"/>
+    <mergeCell ref="B87:B97"/>
+    <mergeCell ref="E87:E93"/>
+    <mergeCell ref="A98:A107"/>
+    <mergeCell ref="B98:B107"/>
+    <mergeCell ref="E98:E103"/>
+    <mergeCell ref="A108:A117"/>
+    <mergeCell ref="B108:B117"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="E138:E142"/>
+    <mergeCell ref="A153:A162"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="E153:E158"/>
+    <mergeCell ref="A118:A127"/>
+    <mergeCell ref="B118:B127"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="B128:B137"/>
+    <mergeCell ref="E128:E133"/>
     <mergeCell ref="BW4:CF4"/>
     <mergeCell ref="A1:CF1"/>
     <mergeCell ref="A2:CF2"/>
@@ -17530,50 +17655,6 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A138:A152"/>
     <mergeCell ref="B138:B152"/>
-    <mergeCell ref="E138:E142"/>
-    <mergeCell ref="A153:A162"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="E153:E158"/>
-    <mergeCell ref="A118:A127"/>
-    <mergeCell ref="B118:B127"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="A128:A137"/>
-    <mergeCell ref="B128:B137"/>
-    <mergeCell ref="E128:E133"/>
-    <mergeCell ref="A98:A107"/>
-    <mergeCell ref="B98:B107"/>
-    <mergeCell ref="E98:E103"/>
-    <mergeCell ref="A108:A117"/>
-    <mergeCell ref="B108:B117"/>
-    <mergeCell ref="E108:E113"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="A87:A97"/>
-    <mergeCell ref="B87:B97"/>
-    <mergeCell ref="E87:E93"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="A67:A76"/>
-    <mergeCell ref="B67:B76"/>
-    <mergeCell ref="E67:E72"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="E37:E43"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="E47:E53"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="72" orientation="landscape" r:id="rId1"/>
